--- a/input/amazon_de_url.xlsx
+++ b/input/amazon_de_url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yudingduan/Documents/JD/programming/retail_agents/competitor_product_search/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1326E09-BA99-474C-B823-F4BD67A36B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE84EFC0-EBEA-AD4A-B1FC-4553B7111D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
   <si>
     <t>item_sku_id</t>
   </si>
@@ -488,411 +488,6 @@
   </si>
   <si>
     <t>https://www.amazon.de/MAM-Night-Silikon-0-6-Monate/dp/B000N3YPZ0</t>
-  </si>
-  <si>
-    <t>猫厕所 猫砂盆除臭凝胶 适配Baymax white</t>
-  </si>
-  <si>
-    <t>Catlink Deodorizer for Baymax white</t>
-  </si>
-  <si>
-    <t>Catlink Désodorisant pour Baymax blanc</t>
-  </si>
-  <si>
-    <t>Catlink Geruchsneutralisierer für Baymax weiß</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/CATLINK-Baymax-Selbstreinigende-Katzentoilette-Geruchsneutral/dp/B0D1QPKNP3</t>
-  </si>
-  <si>
-    <t>大容量外出便携挂钩洗漱包化妆袋藏青色 藏青色</t>
-  </si>
-  <si>
-    <t>Large capacity portable hanging toilet bag, makeup bag, navy blue, navy blue</t>
-  </si>
-  <si>
-    <t>Tragbarer Kulturbeutel zum Aufhängen, große Kapazität, Make-up-Tasche, Marineblau, Marineblau</t>
-  </si>
-  <si>
-    <t>Grote capaciteit draagbare hangende toilettas, make-up tas, marineblauw, marineblauw</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Kulturbeutel-Aufh%C3%A4ngen-wasserdichte-Kosmetiktasche-Make-up-Organizer/dp/B082HLJ3YV</t>
-  </si>
-  <si>
-    <t>珐宝 陶瓷碗 马卡龙色系套碗 - 6件套 - 12cm - 400ml</t>
-  </si>
-  <si>
-    <t>Staub Ceramic Bowls – Macaron Colors – Set of 6 – 12 cm – 400 ml</t>
-  </si>
-  <si>
-    <t>Staub Bols en céramique – Couleurs Macaron – Lot de 6 – 12 cm – 400 ml</t>
-  </si>
-  <si>
-    <t>Staub Keramikschalen im Macaron-Stil – 6er-Set – 12 cm – 400 ml</t>
-  </si>
-  <si>
-    <t>Staub Keramische kommen – macaronkleuren – 6-delig – 12 cm – 400 ml</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/STAUB-Sch%C3%BCsselset-M%C3%BCslisch%C3%BCsseln-Serviersch%C3%BCsseln-Dessertschalen/dp/B0CBSQ4WK5</t>
-  </si>
-  <si>
-    <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 20cm - 2.2L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 20 cm – 2.2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 20 cm – 2,2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 20 cm – 2,2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 20 cm – 2,2 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Staub-Cocotte-Eukalyptus-Gusseisen-1025319/dp/B0BY176BTN</t>
-  </si>
-  <si>
-    <t>冰板 清凉板 2块装 200g</t>
-  </si>
-  <si>
-    <t>Cooling pads 2pcs 200g</t>
-  </si>
-  <si>
-    <t>Kühlpads 2Stk 200g</t>
-  </si>
-  <si>
-    <t>珐宝 小号铸铁平底锅 铸铁煎锅 - 单柄 - 12cm</t>
-  </si>
-  <si>
-    <t>Staub Small Cast Iron Frying Pan – Single Handle – 12 cm</t>
-  </si>
-  <si>
-    <t>Staub Petite poêle en fonte – Poignée simple – 12 cm</t>
-  </si>
-  <si>
-    <t>Staub Kleine Gusseisenpfanne – Bratpfanne mit Griff – 12 cm</t>
-  </si>
-  <si>
-    <t>Staub Kleine gietijzeren koekenpan – enkele handgreep – 12 cm</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/STAUB-12-Minipfanne-Gusseisen-Schwarz/dp/B000P1Q3G4</t>
-  </si>
-  <si>
-    <t>珐宝 Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 24cm - 3.8L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 24 cm – 3.8 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 24 cm – 3,8 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 24 cm – 3,8 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 24 cm – 3,8 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Staub-Cocotte-Induktionsgeeignet-Gusseisen-Einheiten/dp/B00JB7H4D4</t>
-  </si>
-  <si>
-    <t>珐宝（Staub） 圆形铸铁烤盘 铸铁圆锅 - 双柄 - 26cm</t>
-  </si>
-  <si>
-    <t>Staub Round Cast Iron Grill Pan – Double Handles – 26 cm</t>
-  </si>
-  <si>
-    <t>Staub Poêle à griller ronde en fonte – Double poignée – 26 cm</t>
-  </si>
-  <si>
-    <t>Staub Runde Gusseisen-Grillpfanne – mit zwei Griffen – 26 cm</t>
-  </si>
-  <si>
-    <t>Staub Ronde gietijzeren grillpan – dubbele grepen – 26 cm</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Staub-Grillpfanne-rund-Schwarz-Gusseisen/dp/B000X20SF2</t>
-  </si>
-  <si>
-    <t>珐宝（Staub） 圆形铸铁珐琅锅 炖锅 烤炉 烤盘 - 双柄 - 带盖 - 24cm - 2.5L</t>
-  </si>
-  <si>
-    <t>Staub Round Cast Iron Enamel Pot – Casserole – With Lid – 24 cm – 2.5 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte ronde en fonte émaillée avec couvercle, 24 cm, 2,5 L</t>
-  </si>
-  <si>
-    <t>Staub Runder Gusseisen-Schmortopf mit Deckel – 24 cm – 2,5 L</t>
-  </si>
-  <si>
-    <t>Staub Ronde geëmailleerde gietijzeren braadpan – met deksel – 24 cm – 2,5 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Staub-Chistera-Induktionsgeeignet-Gusseisen-Einheiten/dp/B00MI7NOVK</t>
-  </si>
-  <si>
-    <t>Dalli彩色衣物洗衣液3.12公斤</t>
-  </si>
-  <si>
-    <t>Dalli Color Laundry Detergent 3.12kg</t>
-  </si>
-  <si>
-    <t>Lessive couleur Dalli 3,12 kg</t>
-  </si>
-  <si>
-    <t>Dalli Colorwaschmittel 3,12 kg</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Sensitiv-Waschmittel-Waschpulver-Parf%C3%BCmstoffe-Mikroplastik/dp/B0CMR2K7ZY</t>
-  </si>
-  <si>
-    <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 26cm - 5.2L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 26 cm – 5.2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 26 cm – 5,2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 26 cm – 5,2 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 26 cm – 5,2 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/STAUB-Cocotte-Cast-Iron-Gr%C3%BCn/dp/B009DGF7RI</t>
-  </si>
-  <si>
-    <t>珐宝 圆形铸铁珐琅锅 炖锅 烤炉 烤盘 - 双柄 - 带盖 - 28cm - 3.7L</t>
-  </si>
-  <si>
-    <t>Staub Round Cast Iron Enamel Pot – Casserole – With Lid – 28 cm – 3.7 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte ronde en fonte émaillée avec couvercle, 28 cm, 3,7 L</t>
-  </si>
-  <si>
-    <t>Staub Runder Gusseisen-Schmortopf mit Deckel – 28 cm – 3,7 L</t>
-  </si>
-  <si>
-    <t>Staub Ronde geëmailleerde gietijzeren braadpan – met deksel – 28 cm – 3,7 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Staub-Chistera-Induktionsgeeignet-Gusseisen-Einheiten/dp/B00MI7NPBE</t>
-  </si>
-  <si>
-    <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 17cm - 1L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 17 cm – 1 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 17 cm – 1 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 17 cm – 1 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 17 cm – 1 L</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/STAUB-Cocotte-Cast-Iron-Graphitgrau/dp/B000TSN6ZO</t>
-  </si>
-  <si>
-    <t>珐宝 Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 22cm - 2.5L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 22 cm – 2.5 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 22 cm – 2,5 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 22 cm – 2,5 L</t>
-  </si>
-  <si>
-    <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 22 cm – 2,5 L</t>
-  </si>
-  <si>
-    <t>Ahava 玻尿酸精华 30毫升</t>
-  </si>
-  <si>
-    <t>Ahava Hyaluronic Acid Serum 30 ml</t>
-  </si>
-  <si>
-    <t>Ahava Sérum Acide Hyaluronique 30 ml</t>
-  </si>
-  <si>
-    <t>Ahava Hyaluronsäure-Serum 30 ml</t>
-  </si>
-  <si>
-    <t>Ahava Hyaluronzuur Serum 30 ml</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/AHAVA-Hyalurons%C3%A4ure-Serum-Feuchtigkeitsgehalt-gl%C3%A4ttet-Anti-Aging-Vorteile/dp/B011UC6U46</t>
-  </si>
-  <si>
-    <t>矮款门挡 Lock' Dis</t>
-  </si>
-  <si>
-    <t>Low Door Stopper Lock' Dis</t>
-  </si>
-  <si>
-    <t>Niedriges Türstopperschloss Dis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clearly Organic </t>
-  </si>
-  <si>
-    <t>Clearly Organic Ring Fit Adventure (Switch)</t>
-  </si>
-  <si>
-    <t>切尔诺贝利特（PS5）</t>
-  </si>
-  <si>
-    <t>Petsafe Chernobylite (PS5)</t>
-  </si>
-  <si>
-    <t>Petsafe Tchernobylite (PS5)</t>
-  </si>
-  <si>
-    <t>晶星 兰州拉面 2kg</t>
-  </si>
-  <si>
-    <t>Jingxing Lanzhou Ramen Noodles 2kg</t>
-  </si>
-  <si>
-    <t>Jingxing Lanzhou Ramen Nudeln 2kg</t>
-  </si>
-  <si>
-    <t>双层烧烤格栅 30x40厘米 镀铬</t>
-  </si>
-  <si>
-    <t>DOUBLE BBQ GRID 30X40 CHROMIUM</t>
-  </si>
-  <si>
-    <t>GRILLE DE BARBECUE DOUBLE 30X40 CHROME</t>
-  </si>
-  <si>
-    <t>DOPPELTER GRILLGITTER 30X40 CHROM</t>
-  </si>
-  <si>
-    <t>简约刷题小白笔按压水笔 ST头学生考试办公按动中性笔12支 混色装</t>
-  </si>
-  <si>
-    <t>Simple White Pen Set 12 Pack</t>
-  </si>
-  <si>
-    <t>Lot de 12 stylos blancs simples</t>
-  </si>
-  <si>
-    <t>Simple White Pen Set 12er-Pack</t>
-  </si>
-  <si>
-    <t>谷香 泰国直采 谷香 茉莉香大米 5kg</t>
-  </si>
-  <si>
-    <t>Cereal Fragrance Thailand directly picked Jasmine rice 5kg</t>
-  </si>
-  <si>
-    <t>Cereal Fragrance Riz jasmin cueilli directement en Thaïlande 5 kg</t>
-  </si>
-  <si>
-    <t>Cereal Fragrance Direkt aus Thailand geernteter Jasminreis 5kg</t>
-  </si>
-  <si>
-    <t>Cereal Fragrance Thailand direct geplukte jasmijnrijst 5kg</t>
-  </si>
-  <si>
-    <t>佳能原装墨水CLI-551XL C，超大容量，青色，可回收包装</t>
-  </si>
-  <si>
-    <t>Canon Original Ink CLI-551XL C, Size XL, Cyan, Recyclable Packaging</t>
-  </si>
-  <si>
-    <t>Canon Originaltinte CLI-551XL C, Größe XL, Cyan, Recyclebare Verpackung</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Canon-CLI-551C-Tintenpatrone-Cyan-XL/dp/B009DL0CKU</t>
-  </si>
-  <si>
-    <t>鑫阳 侏罗纪世界：进化2（PS5）</t>
-  </si>
-  <si>
-    <t>Xin Yang Jurassic World: Evolution 2 (PS5)</t>
-  </si>
-  <si>
-    <t>剪刀套装 - 3件</t>
-  </si>
-  <si>
-    <t>Scissors Set - 3pcs</t>
-  </si>
-  <si>
-    <t>Ensemble de ciseaux - 3 pièces</t>
-  </si>
-  <si>
-    <t>Scherenset - 3-teilig</t>
-  </si>
-  <si>
-    <t>Schaarset - 3 Stuks</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Kansai-KANSAI-Japan-Scherenset-3-teilig/dp/B00DBDWE0W</t>
-  </si>
-  <si>
-    <t>希捷SkyHawk ST6000VX009 6TB 内置硬盘，支持最多64路摄像头视频录制，3.5英寸，64MB缓存，SATA 6GB/s，银色，FFP，包含3年数据救援服务。</t>
-  </si>
-  <si>
-    <t>Seagate SkyHawk ST6000VX009 6TB Internal Hard Drive HDD, Video Recording up to 64 Cameras, 3.5 Inch, 64 MB Cache, SATA 6GB/s, Silver, FFP, incl. 3 Year Rescue Service</t>
-  </si>
-  <si>
-    <t>Seagate SkyHawk ST6000VX009 6TB interne Festplatte HDD, Videoaufzeichnung bis zu 64 Kameras, 3,5 Zoll, 64 MB Cache, SATA 6GB/s, Silber, FFP, inkl. 3 Jahre Rescue Service</t>
-  </si>
-  <si>
-    <t>厨房纸 10件装</t>
-  </si>
-  <si>
-    <t>Kitchen towels 10pc</t>
-  </si>
-  <si>
-    <t>Torchons de cuisine 10 pièces</t>
-  </si>
-  <si>
-    <t>Küchentücher 10 Stück</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/LEFUNDA-10er-Set-Geschirrt%C3%BCcher-Geschirrhandt%C3%BCcher/dp/B091FFBLQY</t>
-  </si>
-  <si>
-    <t>贝贝图J浆果70克</t>
-  </si>
-  <si>
-    <t>Bebeto J Berries 70g</t>
-  </si>
-  <si>
-    <t>Beetou J, baies 70 g</t>
-  </si>
-  <si>
-    <t>Bebeto J Beeren 70g</t>
-  </si>
-  <si>
-    <t>餐盘 29.5x44厘米</t>
-  </si>
-  <si>
-    <t>Serving tray 29,5x44cm</t>
-  </si>
-  <si>
-    <t>Plateau de service 29,5x44cm</t>
-  </si>
-  <si>
-    <t>Serviertablett 29,5x44cm</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2066,727 +1661,6 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10147413</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10134567</v>
-      </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10126452</v>
-      </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10116334</v>
-      </c>
-      <c r="B36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10134570</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10116354</v>
-      </c>
-      <c r="B38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10105231</v>
-      </c>
-      <c r="B39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10135572</v>
-      </c>
-      <c r="B40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>10123855</v>
-      </c>
-      <c r="B41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10134643</v>
-      </c>
-      <c r="B42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10123622</v>
-      </c>
-      <c r="B43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10106506</v>
-      </c>
-      <c r="B44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>10135363</v>
-      </c>
-      <c r="B45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>10129275</v>
-      </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>10134658</v>
-      </c>
-      <c r="B47" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>10134664</v>
-      </c>
-      <c r="B48" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>10147490</v>
-      </c>
-      <c r="B49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>10106457</v>
-      </c>
-      <c r="B50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>10120736</v>
-      </c>
-      <c r="B51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" t="s">
-        <v>247</v>
-      </c>
-      <c r="E51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>10109757</v>
-      </c>
-      <c r="B52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="s">
-        <v>252</v>
-      </c>
-      <c r="F52" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>10109737</v>
-      </c>
-      <c r="B53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D53" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" t="s">
-        <v>254</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>10149906</v>
-      </c>
-      <c r="B54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" t="s">
-        <v>259</v>
-      </c>
-      <c r="E54" t="s">
-        <v>260</v>
-      </c>
-      <c r="F54" t="s">
-        <v>261</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>10132717</v>
-      </c>
-      <c r="B55" t="s">
-        <v>262</v>
-      </c>
-      <c r="C55" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>10141792</v>
-      </c>
-      <c r="B56" t="s">
-        <v>266</v>
-      </c>
-      <c r="C56" t="s">
-        <v>267</v>
-      </c>
-      <c r="D56" t="s">
-        <v>267</v>
-      </c>
-      <c r="E56" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>10109686</v>
-      </c>
-      <c r="B57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" t="s">
-        <v>270</v>
-      </c>
-      <c r="E57" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>10384048</v>
-      </c>
-      <c r="B58" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E58" t="s">
-        <v>276</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>10109651</v>
-      </c>
-      <c r="B59" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" t="s">
-        <v>280</v>
-      </c>
-      <c r="F59" t="s">
-        <v>278</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>10109649</v>
-      </c>
-      <c r="B60" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" t="s">
-        <v>283</v>
-      </c>
-      <c r="D60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E60" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" t="s">
-        <v>285</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>10109619</v>
-      </c>
-      <c r="B61" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" t="s">
-        <v>288</v>
-      </c>
-      <c r="E61" t="s">
-        <v>289</v>
-      </c>
-      <c r="F61" t="s">
-        <v>287</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
